--- a/excels/用户输入模板.xlsx
+++ b/excels/用户输入模板.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingoobjca/github/xlsx-java/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD2722-5D05-AE49-B684-E9DFB4B75987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DBCD2722-5D05-AE49-B684-E9DFB4B75987}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-34380" yWindow="1780" windowWidth="19420" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="9400" windowWidth="19420" xWindow="-34380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1780"/>
   </bookViews>
   <sheets>
-    <sheet name="用户信息导入模板" sheetId="1" r:id="rId1"/>
-    <sheet name="模板填写说明" sheetId="2" r:id="rId2"/>
+    <sheet name="用户信息导入模板" r:id="rId1" sheetId="1"/>
+    <sheet name="模板填写说明" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -575,217 +575,217 @@
     </border>
   </borders>
   <cellStyleXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="7" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="10" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="42"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="24" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="24" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="29" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="31" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="34" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="28" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="23" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="30" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="32" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="6" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="35" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="16" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="11" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="7" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="18" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="13" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="14" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="15" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="10" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="5" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20% - 着色 1" xfId="29"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20% - 着色 2" xfId="31"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20% - 着色 3" xfId="3"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20% - 着色 4" xfId="34"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20% - 着色 5" xfId="28"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20% - 着色 6" xfId="23"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40% - 着色 1" xfId="30"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40% - 着色 2" xfId="32"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40% - 着色 3" xfId="6"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40% - 着色 4" xfId="35"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40% - 着色 5" xfId="37"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40% - 着色 6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60% - 着色 1" xfId="16"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60% - 着色 2" xfId="11"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60% - 着色 3" xfId="7"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60% - 着色 4" xfId="18"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60% - 着色 5" xfId="38"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60% - 着色 6" xfId="41"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="标题" xfId="2"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="标题 1" xfId="13"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="标题 2" xfId="14"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="标题 3" xfId="15"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="标题 4" xfId="10"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="差" xfId="5"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
     <cellStyle name="常规_模板填写说明_5" xfId="42" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="24" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="19" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="20" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="26" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="17" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="33" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="1" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="8" builtinId="10" customBuiltin="1"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="好" xfId="25"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="汇总" xfId="24"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="计算" xfId="19"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="检查单元格" xfId="20"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="解释性文本" xfId="12"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="警告文本" xfId="9"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="链接单元格" xfId="21"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="适中" xfId="26"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="输出" xfId="17"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="输入" xfId="4"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="着色 1" xfId="27"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="着色 2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="着色 3" xfId="33"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="着色 4" xfId="1"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="着色 5" xfId="36"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="着色 6" xfId="39"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="注释" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -802,10 +802,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -840,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,7 +892,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,7 +997,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1006,13 +1006,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1022,7 +1022,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1031,7 +1031,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1040,7 +1040,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1050,12 +1050,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1086,7 +1086,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1105,7 +1105,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1117,15 +1117,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A7" pane="bottomLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="9" max="248" customWidth="true" style="5" width="9.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="5" width="15.6640625" collapsed="true"/>
@@ -1138,7 +1138,7 @@
     <col min="6" max="6" customWidth="true" style="5" width="15.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="1" spans="1:5">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="2" spans="1:5">
       <c r="A2" t="s" s="7">
         <v>17</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="3" spans="1:5">
       <c r="A3" t="s" s="15">
         <v>18</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="4" spans="1:5">
       <c r="A4" t="s" s="15">
         <v>19</v>
       </c>
@@ -1230,18 +1230,18 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69861111111111107" right="0.69861111111111107" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
@@ -1255,62 +1255,62 @@
     <col min="13" max="254" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" spans="1:5"/>
+    <row customFormat="1" customHeight="1" ht="18" r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="4" s="14" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="5" spans="1:5"/>
+    <row customFormat="1" customHeight="1" ht="18" r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="8" s="14" spans="1:5">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="9" spans="1:5">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="10" spans="1:5">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" customFormat="1" ht="18" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1321,8 +1321,8 @@
     <mergeCell ref="A8:XFD8"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69861111111111107" right="0.69861111111111107" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>